--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11288,12 +11288,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11323,7 +11323,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11336,12 +11336,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11894,16 +11894,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11912,12 +11912,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11942,16 +11942,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11960,12 +11960,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11288,12 +11288,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11323,7 +11323,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11336,12 +11336,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11894,16 +11894,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11912,12 +11912,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11942,16 +11942,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11960,12 +11960,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11288,12 +11288,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11323,7 +11323,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11336,12 +11336,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11894,16 +11894,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11912,12 +11912,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11942,16 +11942,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11960,12 +11960,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -1652,7 +1652,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11288,12 +11288,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11323,7 +11323,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11336,12 +11336,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11894,16 +11894,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11912,12 +11912,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11942,16 +11942,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11960,12 +11960,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>TRANSNET S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11288,12 +11288,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11323,7 +11323,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11336,12 +11336,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>TRANSNET S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11894,16 +11894,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11912,12 +11912,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11942,16 +11942,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11960,12 +11960,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,16 +7490,16 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11288,12 +11288,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11323,7 +11323,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11336,12 +11336,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11894,16 +11894,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11912,12 +11912,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11942,16 +11942,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11960,12 +11960,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11323,7 +11323,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11336,12 +11336,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11384,12 +11384,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11942,16 +11942,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11960,12 +11960,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -11990,16 +11990,16 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12008,12 +12008,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,16 +7538,16 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11323,7 +11323,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11336,12 +11336,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11384,12 +11384,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11942,16 +11942,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11960,12 +11960,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -11990,16 +11990,16 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12008,12 +12008,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -9939,7 +9939,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F200" t="n">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11384,12 +11384,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11419,7 +11419,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -11990,16 +11990,16 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12008,12 +12008,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12038,16 +12038,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2022</t>
+          <t>21/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11384,12 +11384,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11419,7 +11419,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -11990,16 +11990,16 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12008,12 +12008,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12038,16 +12038,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,16 +7586,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11384,12 +11384,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11419,7 +11419,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -11990,16 +11990,16 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12008,12 +12008,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12038,16 +12038,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11419,7 +11419,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11467,7 +11467,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11480,12 +11480,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12038,16 +12038,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12086,16 +12086,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11419,7 +11419,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11467,7 +11467,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11480,12 +11480,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12038,16 +12038,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12086,16 +12086,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>23/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11419,7 +11419,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11467,7 +11467,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11480,12 +11480,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12038,16 +12038,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12086,16 +12086,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aguas PAcifico SpA</t>
+          <t>Subestación Puchuncaví S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11419,7 +11419,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11467,7 +11467,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11480,12 +11480,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12038,16 +12038,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12086,16 +12086,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11419,7 +11419,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11467,7 +11467,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11480,12 +11480,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12038,16 +12038,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12056,12 +12056,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12086,16 +12086,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11467,7 +11467,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11480,12 +11480,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -11528,12 +11528,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12086,16 +12086,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12134,16 +12134,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12152,12 +12152,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11467,7 +11467,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11480,12 +11480,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -11528,12 +11528,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12086,16 +12086,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12134,16 +12134,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12152,12 +12152,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/01/2023</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>25/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11467,7 +11467,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11480,12 +11480,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -11528,12 +11528,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12086,16 +12086,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12134,16 +12134,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12152,12 +12152,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11467,7 +11467,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11480,12 +11480,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -11528,12 +11528,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12086,16 +12086,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12134,16 +12134,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12152,12 +12152,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/05/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -11528,12 +11528,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11576,12 +11576,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12134,16 +12134,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12152,12 +12152,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12182,16 +12182,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12200,12 +12200,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -11528,12 +11528,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11576,12 +11576,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12134,16 +12134,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12152,12 +12152,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12182,16 +12182,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12200,12 +12200,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>23/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11576,12 +11576,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -11624,12 +11624,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12182,16 +12182,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12200,12 +12200,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12230,16 +12230,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12248,12 +12248,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11576,12 +11576,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -11624,12 +11624,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12182,16 +12182,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12200,12 +12200,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12230,16 +12230,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12248,12 +12248,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/09/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11576,12 +11576,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -11624,12 +11624,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12182,16 +12182,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12200,12 +12200,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12230,16 +12230,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12248,12 +12248,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -7831,7 +7831,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F221" t="n">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11576,12 +11576,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -11624,12 +11624,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12182,16 +12182,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12200,12 +12200,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12230,16 +12230,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12248,12 +12248,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11576,12 +11576,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -11624,12 +11624,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12182,16 +12182,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12200,12 +12200,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12230,16 +12230,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12248,12 +12248,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">

--- a/data/Puchuncaví.xlsx
+++ b/data/Puchuncaví.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2000</v>
+        <v>5705</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica Subterránea Central Termoeléctrica Quintero ¿ Terminal Gas Natural Licuado Quintero</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>5705</v>
+        <v>2000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4394015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11576,12 +11576,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -11624,12 +11624,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12182,16 +12182,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12200,12 +12200,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>CONDOMINIO MAITENCILLO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12230,16 +12230,16 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Proyectos e Inversiones Los Queltehues Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12248,12 +12248,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1360650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
